--- a/baseline/baseline_indicators/Ug_maize_baseline_Indicators.xlsx
+++ b/baseline/baseline_indicators/Ug_maize_baseline_Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/l_nabwire_cgiar_org/Documents/L.Nabwire/git/Maize_Uganda/mippi_UG/baseline/baseline_indicators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B91011-B4EC-49B8-A1A4-292C771F40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{F1B91011-B4EC-49B8-A1A4-292C771F40E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69419BF-CC76-404D-BE23-058A2F836995}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="668" firstSheet="3" activeTab="1" xr2:uid="{538A9C85-F0F7-4C66-A0DE-0201E7D515F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="668" activeTab="1" xr2:uid="{538A9C85-F0F7-4C66-A0DE-0201E7D515F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="1" r:id="rId1"/>
@@ -1430,6 +1430,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1817,13 +1821,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCDB6B-A58A-4B75-A48B-114DAB459A84}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2752,6 +2756,13 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="D23" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,10 +2773,10 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7:S7"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4441,7 +4452,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5500,15 +5511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6982789-09b7-41d0-b947-d5210862decf">
@@ -5517,6 +5519,15 @@
     <TaxCatchAll xmlns="8535c8ee-5c99-4c1b-9d2a-123136c0bb68" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5769,20 +5780,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC841244-3B13-4E1E-8648-82AFBA8A154A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA585D93-6A69-438D-9ECE-B53E064F7A06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f6982789-09b7-41d0-b947-d5210862decf"/>
     <ds:schemaRef ds:uri="8535c8ee-5c99-4c1b-9d2a-123136c0bb68"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC841244-3B13-4E1E-8648-82AFBA8A154A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
